--- a/nr-rm-mesures-frcore/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
+++ b/nr-rm-mesures-frcore/ig/StructureDefinition-mesures-fr-observation-bmi.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4417" uniqueCount="687">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T08:11:30+00:00</t>
+    <t>2024-07-30T08:17:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1933,9 +1933,6 @@
   </si>
   <si>
     <t>Need to be able to identify the target population for proper interpretation.</t>
-  </si>
-  <si>
-    <t>JDV_J148-ReferenceRangeAppliesTo-CISIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J148-ReferenceRangeAppliesTo-CISIS/FHIR/JDV-J148-ReferenceRangeAppliesTo-CISIS</t>
@@ -13353,11 +13350,9 @@
       <c r="X90" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Y90" t="s" s="2">
+      <c r="Y90" s="2"/>
+      <c r="Z90" t="s" s="2">
         <v>615</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>616</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>82</v>
@@ -13410,10 +13405,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13528,10 +13523,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13648,10 +13643,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13770,10 +13765,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13888,10 +13883,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -14008,10 +14003,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -14130,10 +14125,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14250,10 +14245,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14372,10 +14367,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14494,10 +14489,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14616,10 +14611,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14738,10 +14733,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14764,19 +14759,19 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M102" t="s" s="2">
+      <c r="N102" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="N102" t="s" s="2">
+      <c r="O102" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>82</v>
@@ -14825,7 +14820,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14837,19 +14832,19 @@
         <v>105</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM102" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
+      <c r="AN102" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>82</v>
@@ -14860,10 +14855,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14889,10 +14884,10 @@
         <v>109</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>638</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="N103" t="s" s="2">
         <v>304</v>
@@ -14945,7 +14940,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14969,7 +14964,7 @@
         <v>595</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>82</v>
@@ -14980,10 +14975,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -15006,16 +15001,16 @@
         <v>94</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>642</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>643</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>644</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>645</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -15065,7 +15060,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -15086,10 +15081,10 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>646</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>647</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>82</v>
@@ -15100,10 +15095,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15126,16 +15121,16 @@
         <v>94</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>649</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>651</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>652</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -15185,7 +15180,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
@@ -15206,10 +15201,10 @@
         <v>82</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>82</v>
@@ -15220,10 +15215,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -15249,16 +15244,16 @@
         <v>573</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="N106" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M106" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>656</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>657</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>82</v>
@@ -15307,7 +15302,7 @@
         <v>82</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>80</v>
@@ -15319,19 +15314,19 @@
         <v>105</v>
       </c>
       <c r="AJ106" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>658</v>
       </c>
-      <c r="AK106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>659</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>660</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>82</v>
@@ -15342,10 +15337,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15460,10 +15455,10 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15580,10 +15575,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15702,10 +15697,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15731,16 +15726,16 @@
         <v>252</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>664</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>665</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>666</v>
       </c>
-      <c r="N110" t="s" s="2">
+      <c r="O110" t="s" s="2">
         <v>667</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>668</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>82</v>
@@ -15789,7 +15784,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>93</v>
@@ -15807,7 +15802,7 @@
         <v>82</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>347</v>
@@ -15824,10 +15819,10 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15853,13 +15848,13 @@
         <v>431</v>
       </c>
       <c r="L111" t="s" s="2">
+        <v>670</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>434</v>
@@ -15890,37 +15885,37 @@
         <v>153</v>
       </c>
       <c r="Y111" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="Z111" t="s" s="2">
         <v>674</v>
       </c>
-      <c r="Z111" t="s" s="2">
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI111" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>106</v>
@@ -15929,7 +15924,7 @@
         <v>82</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>439</v>
@@ -15946,10 +15941,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15975,13 +15970,13 @@
         <v>252</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>500</v>
@@ -16033,7 +16028,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>80</v>
@@ -16042,7 +16037,7 @@
         <v>93</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>106</v>
@@ -16068,10 +16063,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -16134,7 +16129,7 @@
         <v>153</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="Z113" t="s" s="2">
         <v>522</v>
@@ -16155,7 +16150,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>80</v>
@@ -16190,10 +16185,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -16219,10 +16214,10 @@
         <v>83</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>685</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>686</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="N114" t="s" s="2">
         <v>576</v>
@@ -16277,7 +16272,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>80</v>
